--- a/res/sintesi.xlsx
+++ b/res/sintesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo Dom-Z Mk. II\Desktop\repo tesi\SiameseChangeDetection\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC009A6-604D-4E28-9B7A-7AF3368C0574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7DC6C0-B13C-418B-ADAF-EA3BD8FC3AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61094940-FC59-4AF4-BC99-2C928A0C3E64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="348">
   <si>
     <t>Apprendimento eseguito su Bay Area con Distanza euclidea</t>
   </si>
@@ -357,33 +357,6 @@
     <t xml:space="preserve"> 0.807318</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.813245</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.733243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006346</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.109816</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.156619</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.005545</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.445918</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.904558</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.952779</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 202</t>
   </si>
   <si>
@@ -504,9 +477,6 @@
     <t xml:space="preserve"> 236</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.984130</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.015864</t>
   </si>
   <si>
@@ -703,13 +673,418 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.788638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.055472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.066040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.914630</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.401409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.973872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.819885</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.048367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.058649</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.422212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.930209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.376475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.980608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.813010</t>
+  </si>
+  <si>
+    <t>con  scelta neuroni decrescente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.020457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.029167</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.155582</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.103350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.649746</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33842</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.845519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.990872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10296</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15973</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.788810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.083859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.093508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.310194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.860740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32588</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.631159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.962053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9936</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.751518</t>
+  </si>
+  <si>
+    <t>con scelta decrescente + layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.038814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.042857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.849455</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.478884</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.982241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.807378</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.008070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.009677</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.147774</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.002900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.888025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4764</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.503715</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.987930</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.730849</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.006662</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.007939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.782175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5654</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.815414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.988646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.837383</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.017863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.019285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.050901</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.354005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.858063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66743</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.389555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.971083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7462</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.754513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.011338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.010834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.882989</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5618</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9892</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.547288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.977342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6836</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.816900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,13 +1096,6 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,18 +1129,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -789,8 +1166,25 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -883,49 +1277,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
+  <cellStyles count="8">
+    <cellStyle name="40% - Colore 2" xfId="6" builtinId="35"/>
+    <cellStyle name="60% - Colore 6" xfId="7" builtinId="52"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="5" builtinId="21"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
     <cellStyle name="Titolo 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
+    <cellStyle name="Valore valido" xfId="5" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B562F8-B3C4-4646-8E45-B693A4BAA705}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="A28" sqref="A1:Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1717,7 @@
     <col min="26" max="26" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1278,1404 +1747,2182 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y5" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z5" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="AA5" s="10"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E7" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H7" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K7" s="39">
         <v>224</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L7" s="39">
         <v>128</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M7" s="39">
         <v>64</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T7" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U7" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V7" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W7" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z7" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M9" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O9" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P9" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q9" t="s">
         <v>17</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R9" t="s">
         <v>18</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S9" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U9" t="s">
         <v>21</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V9" t="s">
         <v>22</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W9" t="s">
         <v>23</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X9" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y9" t="s">
         <v>25</v>
       </c>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>24</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B10" s="40">
         <v>157</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C10" s="40">
         <v>97</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E10" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H10" s="40">
         <v>64</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K10" s="40">
         <v>64</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L10" s="40">
         <v>256</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M10" s="40">
         <v>256</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N10" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O10" s="40">
         <v>15343</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P10" s="40">
         <v>76014</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q10" s="40">
         <v>4404</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R10" s="40">
         <v>36791</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U10" s="40">
         <v>7746</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V10" s="40">
         <v>6758</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W10" s="40">
         <v>85</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X10" s="40">
         <v>108</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y10" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z10" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="11" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="19">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="19">
+        <v>512</v>
+      </c>
+      <c r="L11" s="19">
+        <v>256</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="19">
+        <v>77814</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>2604</v>
+      </c>
+      <c r="R11" s="19">
+        <v>6647</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="U11" s="19">
+        <v>7679</v>
+      </c>
+      <c r="V11" s="19">
+        <v>6733</v>
+      </c>
+      <c r="W11" s="19">
+        <v>110</v>
+      </c>
+      <c r="X11" s="19">
+        <v>175</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+    </row>
+    <row r="12" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B12" s="41">
         <v>407</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C12" s="41">
         <v>125</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D12" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F12" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H12" s="41">
         <v>32</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J12" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K12" s="41">
         <v>256</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L12" s="41">
         <v>256</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M12" s="41">
         <v>128</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N12" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O12" s="41">
         <v>43949</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P12" s="41">
         <v>77071</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q12" s="41">
         <v>3347</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R12" s="41">
         <v>8185</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S12" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U12" s="41">
         <v>7685</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V12" s="41">
         <v>6734</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W12" s="41">
         <v>109</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X12" s="41">
         <v>169</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Y12" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="Z12" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="42">
+        <v>32</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="42">
+        <v>512</v>
+      </c>
+      <c r="L13" s="42">
+        <v>256</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z13" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>7</v>
+      </c>
+      <c r="B14" s="38">
+        <v>57</v>
+      </c>
+      <c r="C14" s="38">
+        <v>29</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="38">
+        <v>32</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="38">
+        <v>224</v>
+      </c>
+      <c r="L14" s="38">
+        <v>128</v>
+      </c>
+      <c r="M14" s="38">
+        <v>64</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O14" s="38">
+        <v>44041</v>
+      </c>
+      <c r="P14" s="38">
+        <v>77195</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>3223</v>
+      </c>
+      <c r="R14" s="38">
+        <v>8093</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="U14" s="38">
+        <v>7595</v>
+      </c>
+      <c r="V14" s="38">
+        <v>6718</v>
+      </c>
+      <c r="W14" s="38">
+        <v>125</v>
+      </c>
+      <c r="X14" s="38">
+        <v>259</v>
+      </c>
+      <c r="Y14" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+    </row>
+    <row r="15" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16">
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16">
+      <c r="W16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+    </row>
+    <row r="19" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>28</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="V20" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="W20" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X20" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z20" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="9">
+        <v>224</v>
+      </c>
+      <c r="L21" s="9">
+        <v>128</v>
+      </c>
+      <c r="M21" s="9">
+        <v>64</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+    </row>
+    <row r="22" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="L23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="I24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+    </row>
+    <row r="25" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="W25" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+    </row>
+    <row r="26" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y26" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+    </row>
+    <row r="27" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="V27" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="W27" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="9">
         <v>224</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L28" s="9">
         <v>128</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M28" s="9">
         <v>64</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" s="16">
-        <v>44816</v>
-      </c>
-      <c r="P10" s="16">
-        <v>75085</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>5333</v>
-      </c>
-      <c r="R10" s="16">
-        <v>7318</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="U10" s="16">
-        <v>7470</v>
-      </c>
-      <c r="V10" s="16">
-        <v>6533</v>
-      </c>
-      <c r="W10" s="16">
-        <v>310</v>
-      </c>
-      <c r="X10" s="16">
-        <v>384</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10" s="16" t="s">
+      <c r="N28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z28" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="16">
-        <v>224</v>
-      </c>
-      <c r="L15" s="16">
-        <v>128</v>
-      </c>
-      <c r="M15" s="16">
-        <v>64</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="16">
-        <v>224</v>
-      </c>
-      <c r="L20" s="16">
-        <v>128</v>
-      </c>
-      <c r="M20" s="16">
-        <v>64</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A8:Z8"/>
     <mergeCell ref="A47:Y47"/>
-    <mergeCell ref="A16:Z16"/>
-    <mergeCell ref="A11:Z11"/>
+    <mergeCell ref="A15:Z15"/>
     <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A22:Z22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:Z5 A18:Z20 A13:Z15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Z28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/res/sintesi.xlsx
+++ b/res/sintesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo Dom-Z Mk. II\Desktop\repo tesi\SiameseChangeDetection\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7DC6C0-B13C-418B-ADAF-EA3BD8FC3AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0F295-F02A-4350-A97A-CF55DE554ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61094940-FC59-4AF4-BC99-2C928A0C3E64}"/>
+    <workbookView xWindow="-19320" yWindow="6540" windowWidth="19440" windowHeight="15000" xr2:uid="{61094940-FC59-4AF4-BC99-2C928A0C3E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="418">
   <si>
     <t>Apprendimento eseguito su Bay Area con Distanza euclidea</t>
   </si>
@@ -1078,6 +1078,216 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.816900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.014042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.015460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.107004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.186762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.632431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38711</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.185844</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.976254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.800488</t>
+  </si>
+  <si>
+    <t>last best + layer finale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.052454</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.057817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.817332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.522676</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.974621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.820191</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.082361</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.088061</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.411328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.008747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.859038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32141</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.651735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.963110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9940</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.763848</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.010917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.013423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.769600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.569723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.981404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9974</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 453</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.718173</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1289,7 +1505,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1298,8 +1514,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1311,19 +1528,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
@@ -1385,9 +1590,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Colore 2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - Colore 5" xfId="8" builtinId="47"/>
     <cellStyle name="60% - Colore 6" xfId="7" builtinId="52"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -1708,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B562F8-B3C4-4646-8E45-B693A4BAA705}">
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:Z28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,34 +1938,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1825,79 +2045,79 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="28" t="s">
         <v>47</v>
       </c>
       <c r="Z3" s="8" t="s">
@@ -1905,326 +2125,326 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="15" t="s">
         <v>231</v>
       </c>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="X5" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="37" t="s">
+      <c r="Y5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="13" t="s">
         <v>90</v>
       </c>
       <c r="AA5" s="10"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="U6" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="Z6" s="27" t="s">
+      <c r="Z6" s="23" t="s">
         <v>266</v>
       </c>
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="39">
-        <v>224</v>
-      </c>
-      <c r="L7" s="39">
-        <v>128</v>
-      </c>
-      <c r="M7" s="39">
-        <v>64</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="W7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>91</v>
+      <c r="A7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
@@ -2233,35 +2453,85 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="35">
+        <v>224</v>
+      </c>
+      <c r="L8" s="35">
+        <v>128</v>
+      </c>
+      <c r="M8" s="35">
+        <v>64</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
@@ -2269,82 +2539,35 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>25</v>
-      </c>
+    <row r="9" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
@@ -2352,85 +2575,83 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="40">
-        <v>157</v>
-      </c>
-      <c r="C10" s="40">
-        <v>97</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="40">
-        <v>64</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="40">
-        <v>64</v>
-      </c>
-      <c r="L10" s="40">
-        <v>256</v>
-      </c>
-      <c r="M10" s="40">
-        <v>256</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="40">
-        <v>15343</v>
-      </c>
-      <c r="P10" s="40">
-        <v>76014</v>
-      </c>
-      <c r="Q10" s="40">
-        <v>4404</v>
-      </c>
-      <c r="R10" s="40">
-        <v>36791</v>
-      </c>
-      <c r="S10" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="40">
-        <v>7746</v>
-      </c>
-      <c r="V10" s="40">
-        <v>6758</v>
-      </c>
-      <c r="W10" s="40">
-        <v>85</v>
-      </c>
-      <c r="X10" s="40">
-        <v>108</v>
-      </c>
-      <c r="Y10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="Y10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="11"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
@@ -2438,84 +2659,84 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
     </row>
-    <row r="11" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="19">
-        <v>32</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="19">
-        <v>512</v>
-      </c>
-      <c r="L11" s="19">
+    <row r="11" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>24</v>
+      </c>
+      <c r="B11" s="36">
+        <v>157</v>
+      </c>
+      <c r="C11" s="36">
+        <v>97</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="36">
+        <v>64</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="36">
+        <v>64</v>
+      </c>
+      <c r="L11" s="36">
         <v>256</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="P11" s="19">
-        <v>77814</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>2604</v>
-      </c>
-      <c r="R11" s="19">
-        <v>6647</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="U11" s="19">
-        <v>7679</v>
-      </c>
-      <c r="V11" s="19">
-        <v>6733</v>
-      </c>
-      <c r="W11" s="19">
-        <v>110</v>
-      </c>
-      <c r="X11" s="19">
-        <v>175</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z11" s="19" t="s">
-        <v>231</v>
+      <c r="M11" s="36">
+        <v>256</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="36">
+        <v>15343</v>
+      </c>
+      <c r="P11" s="36">
+        <v>76014</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>4404</v>
+      </c>
+      <c r="R11" s="36">
+        <v>36791</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" s="36">
+        <v>7746</v>
+      </c>
+      <c r="V11" s="36">
+        <v>6758</v>
+      </c>
+      <c r="W11" s="36">
+        <v>85</v>
+      </c>
+      <c r="X11" s="36">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -2524,84 +2745,84 @@
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
     </row>
-    <row r="12" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>7</v>
-      </c>
-      <c r="B12" s="41">
-        <v>407</v>
-      </c>
-      <c r="C12" s="41">
-        <v>125</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="41">
+    <row r="12" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="15">
         <v>32</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="41">
+      <c r="I12" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="15">
+        <v>512</v>
+      </c>
+      <c r="L12" s="15">
         <v>256</v>
       </c>
-      <c r="L12" s="41">
-        <v>256</v>
-      </c>
-      <c r="M12" s="41">
-        <v>128</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="41">
-        <v>43949</v>
-      </c>
-      <c r="P12" s="41">
-        <v>77071</v>
-      </c>
-      <c r="Q12" s="41">
-        <v>3347</v>
-      </c>
-      <c r="R12" s="41">
-        <v>8185</v>
-      </c>
-      <c r="S12" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="U12" s="41">
-        <v>7685</v>
-      </c>
-      <c r="V12" s="41">
-        <v>6734</v>
-      </c>
-      <c r="W12" s="41">
-        <v>109</v>
-      </c>
-      <c r="X12" s="41">
-        <v>169</v>
-      </c>
-      <c r="Y12" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z12" s="17" t="s">
-        <v>90</v>
+      <c r="M12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="15">
+        <v>77814</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>2604</v>
+      </c>
+      <c r="R12" s="15">
+        <v>6647</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="U12" s="15">
+        <v>7679</v>
+      </c>
+      <c r="V12" s="15">
+        <v>6733</v>
+      </c>
+      <c r="W12" s="15">
+        <v>110</v>
+      </c>
+      <c r="X12" s="15">
+        <v>175</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2611,83 +2832,83 @@
       <c r="AF12" s="10"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="42">
+      <c r="A13" s="37">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37">
+        <v>407</v>
+      </c>
+      <c r="C13" s="37">
+        <v>125</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="37">
         <v>32</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="K13" s="42">
-        <v>512</v>
-      </c>
-      <c r="L13" s="42">
+      <c r="I13" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="37">
         <v>256</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="S13" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="U13" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="V13" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="X13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y13" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z13" s="27" t="s">
-        <v>266</v>
+      <c r="L13" s="37">
+        <v>256</v>
+      </c>
+      <c r="M13" s="37">
+        <v>128</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="37">
+        <v>43949</v>
+      </c>
+      <c r="P13" s="37">
+        <v>77071</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>3347</v>
+      </c>
+      <c r="R13" s="37">
+        <v>8185</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="37">
+        <v>7685</v>
+      </c>
+      <c r="V13" s="37">
+        <v>6734</v>
+      </c>
+      <c r="W13" s="37">
+        <v>109</v>
+      </c>
+      <c r="X13" s="37">
+        <v>169</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -2697,83 +2918,83 @@
       <c r="AF13" s="10"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>7</v>
-      </c>
-      <c r="B14" s="38">
-        <v>57</v>
-      </c>
-      <c r="C14" s="38">
-        <v>29</v>
+      <c r="A14" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="H14" s="38">
         <v>32</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="K14" s="38">
-        <v>224</v>
+        <v>512</v>
       </c>
       <c r="L14" s="38">
-        <v>128</v>
-      </c>
-      <c r="M14" s="38">
-        <v>64</v>
+        <v>256</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O14" s="38">
-        <v>44041</v>
-      </c>
-      <c r="P14" s="38">
-        <v>77195</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>3223</v>
-      </c>
-      <c r="R14" s="38">
-        <v>8093</v>
+        <v>271</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="U14" s="38">
-        <v>7595</v>
-      </c>
-      <c r="V14" s="38">
-        <v>6718</v>
-      </c>
-      <c r="W14" s="38">
-        <v>125</v>
-      </c>
-      <c r="X14" s="38">
-        <v>259</v>
+        <v>277</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="Y14" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>91</v>
+        <v>281</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -2782,35 +3003,85 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="U15" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="W15" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="X15" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y15" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>368</v>
+      </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -2819,80 +3090,83 @@
       <c r="AF15" s="10"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="A16" s="34">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W16" t="s">
-        <v>23</v>
-      </c>
-      <c r="X16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>25</v>
+      <c r="B16" s="34">
+        <v>57</v>
+      </c>
+      <c r="C16" s="34">
+        <v>29</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="34">
+        <v>32</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="34">
+        <v>224</v>
+      </c>
+      <c r="L16" s="34">
+        <v>128</v>
+      </c>
+      <c r="M16" s="34">
+        <v>64</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16" s="34">
+        <v>44041</v>
+      </c>
+      <c r="P16" s="34">
+        <v>77195</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>3223</v>
+      </c>
+      <c r="R16" s="34">
+        <v>8093</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="U16" s="34">
+        <v>7595</v>
+      </c>
+      <c r="V16" s="34">
+        <v>6718</v>
+      </c>
+      <c r="W16" s="34">
+        <v>125</v>
+      </c>
+      <c r="X16" s="34">
+        <v>259</v>
+      </c>
+      <c r="Y16" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -2901,85 +3175,35 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="X17" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>89</v>
-      </c>
+    <row r="17" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
@@ -2988,84 +3212,82 @@
       <c r="AF17" s="10"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="W18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="A18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z18" s="11"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -3073,84 +3295,84 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="41" t="s">
+    <row r="19" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="41" t="s">
+      <c r="I19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="O19" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="S19" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="T19" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="U19" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="V19" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="W19" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="X19" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>90</v>
+      <c r="N19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -3160,83 +3382,83 @@
       <c r="AF19" s="10"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>28</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="42" t="s">
+      <c r="A20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="V20" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="W20" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="X20" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y20" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z20" s="27" t="s">
-        <v>266</v>
+      <c r="N20" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -3246,83 +3468,83 @@
       <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="9">
-        <v>224</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="A21" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="9">
-        <v>64</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>91</v>
+      <c r="H21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U21" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="X21" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -3331,35 +3553,85 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>28</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="X22" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>266</v>
+      </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
@@ -3367,83 +3639,85 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z23" s="4"/>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q23" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="U23" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="V23" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="W23" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="X23" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y23" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z23" s="43" t="s">
+        <v>368</v>
+      </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -3452,83 +3726,83 @@
       <c r="AF23" s="10"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="A24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="9">
+        <v>224</v>
+      </c>
+      <c r="L24" s="9">
         <v>128</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>89</v>
+      <c r="M24" s="9">
+        <v>64</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
@@ -3537,85 +3811,35 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
-    <row r="25" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="S25" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="U25" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="W25" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y25" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>231</v>
-      </c>
+    <row r="25" spans="1:32" s="12" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
@@ -3623,85 +3847,83 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="T26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="V26" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="W26" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y26" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z26" s="17" t="s">
-        <v>90</v>
-      </c>
+    <row r="26" spans="1:32" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -3709,84 +3931,84 @@
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
-    <row r="27" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="K27" s="25" t="s">
+    <row r="27" spans="1:32" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="M27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="O27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q27" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="R27" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="V27" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="W27" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="X27" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y27" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z27" s="27" t="s">
-        <v>266</v>
+      <c r="N27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -3796,83 +4018,83 @@
       <c r="AF27" s="10"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="A28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K28" s="9">
-        <v>224</v>
-      </c>
-      <c r="L28" s="9">
-        <v>128</v>
-      </c>
-      <c r="M28" s="9">
-        <v>64</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y28" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>91</v>
+      <c r="I28" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
@@ -3881,48 +4103,368 @@
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="W30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="S31" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="T31" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="V31" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y31" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z31" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32" s="9">
+        <v>224</v>
+      </c>
+      <c r="L32" s="9">
+        <v>128</v>
+      </c>
+      <c r="M32" s="9">
+        <v>64</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z35" s="10"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:Z8"/>
     <mergeCell ref="A47:Y47"/>
-    <mergeCell ref="A15:Z15"/>
     <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A22:Z22"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A25:Z25"/>
+    <mergeCell ref="A17:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Z28" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Z32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>